--- a/PredictionSheets/VM 2014 Tippekonkuranse_Åge Martin.xlsx
+++ b/PredictionSheets/VM 2014 Tippekonkuranse_Åge Martin.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R\Documents\GitHub\VMTipping\PredictionSheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="420" yWindow="0" windowWidth="35440" windowHeight="20460" activeTab="1"/>
+    <workbookView xWindow="420" yWindow="0" windowWidth="35445" windowHeight="20460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppespilltipp" sheetId="1" r:id="rId1"/>
     <sheet name="Sluttspilltipp" sheetId="2" r:id="rId2"/>
     <sheet name="Kampoppsett" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1090,10 +1095,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Fulgt hyperkobling" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Fulgt hyperkobling" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperkobling" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperkobling" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1798,7 +1803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1808,12 +1813,12 @@
       <selection activeCell="N10" sqref="N10:Q49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="14.5" customWidth="1"/>
+    <col min="1" max="11" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20">
+    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
         <v>44</v>
       </c>
@@ -1823,13 +1828,13 @@
       <c r="N1" s="64"/>
       <c r="O1" s="64"/>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
       <c r="N2" s="64"/>
       <c r="O2" s="64"/>
     </row>
-    <row r="3" spans="1:17" ht="28" customHeight="1" thickBot="1">
+    <row r="3" spans="1:17" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
@@ -1844,13 +1849,13 @@
       <c r="N3" s="64"/>
       <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L4" s="64"/>
       <c r="M4" s="64"/>
       <c r="N4" s="64"/>
       <c r="O4" s="64"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1868,7 +1873,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1883,7 +1888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1">
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1912,7 +1917,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="28" customHeight="1">
+    <row r="11" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>1</v>
       </c>
@@ -1958,7 +1963,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="28" customHeight="1">
+    <row r="12" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
@@ -2001,7 +2006,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="28" customHeight="1">
+    <row r="13" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
@@ -2041,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="28" customHeight="1">
+    <row r="14" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>4</v>
       </c>
@@ -2081,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="28" customHeight="1">
+    <row r="15" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>4</v>
       </c>
@@ -2115,7 +2120,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="28" customHeight="1" thickBot="1">
+    <row r="16" spans="1:17" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>2</v>
       </c>
@@ -2161,7 +2166,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="20.25" customHeight="1">
+    <row r="17" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
@@ -2178,7 +2183,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="20.25" customHeight="1" thickBot="1">
+    <row r="18" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2198,7 +2203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="28" customHeight="1">
+    <row r="19" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2238,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="28" customHeight="1">
+    <row r="20" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>8</v>
       </c>
@@ -2272,7 +2277,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="28" customHeight="1">
+    <row r="21" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>6</v>
       </c>
@@ -2315,7 +2320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="28" customHeight="1">
+    <row r="22" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>9</v>
       </c>
@@ -2358,7 +2363,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="28" customHeight="1">
+    <row r="23" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>9</v>
       </c>
@@ -2401,7 +2406,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="28" customHeight="1" thickBot="1">
+    <row r="24" spans="1:17" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>7</v>
       </c>
@@ -2441,7 +2446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="20.25" customHeight="1">
+    <row r="25" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
@@ -2449,7 +2454,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:17" ht="20.25" customHeight="1" thickBot="1">
+    <row r="26" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2475,7 +2480,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="28" customHeight="1">
+    <row r="27" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>11</v>
       </c>
@@ -2515,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="28" customHeight="1">
+    <row r="28" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>13</v>
       </c>
@@ -2555,7 +2560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="28" customHeight="1">
+    <row r="29" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>11</v>
       </c>
@@ -2598,7 +2603,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="28" customHeight="1">
+    <row r="30" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>14</v>
       </c>
@@ -2632,7 +2637,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="28" customHeight="1">
+    <row r="31" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>14</v>
       </c>
@@ -2678,7 +2683,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="28" customHeight="1" thickBot="1">
+    <row r="32" spans="1:17" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>12</v>
       </c>
@@ -2718,7 +2723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="20.25" customHeight="1">
+    <row r="33" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
@@ -2735,7 +2740,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="20.25" customHeight="1" thickBot="1">
+    <row r="34" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -2755,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="28" customHeight="1">
+    <row r="35" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>16</v>
       </c>
@@ -2789,7 +2794,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="28" customHeight="1">
+    <row r="36" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>18</v>
       </c>
@@ -2835,7 +2840,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="28" customHeight="1">
+    <row r="37" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>16</v>
       </c>
@@ -2875,7 +2880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="28" customHeight="1">
+    <row r="38" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>19</v>
       </c>
@@ -2915,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="28" customHeight="1">
+    <row r="39" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>19</v>
       </c>
@@ -2958,7 +2963,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="28" customHeight="1" thickBot="1">
+    <row r="40" spans="1:17" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>17</v>
       </c>
@@ -2992,7 +2997,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N41" t="s">
         <v>95</v>
       </c>
@@ -3006,7 +3011,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
       <c r="O42" t="s">
         <v>32</v>
@@ -3018,7 +3023,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O43" t="s">
         <v>33</v>
       </c>
@@ -3026,7 +3031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O44" t="s">
         <v>34</v>
       </c>
@@ -3034,7 +3039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N46" t="s">
         <v>102</v>
       </c>
@@ -3048,7 +3053,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O47" t="s">
         <v>37</v>
       </c>
@@ -3056,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O48" t="s">
         <v>38</v>
       </c>
@@ -3067,7 +3072,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="15:16">
+    <row r="49" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O49" t="s">
         <v>39</v>
       </c>
@@ -3089,34 +3094,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:L43"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="24" customHeight="1">
+    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
@@ -3133,7 +3138,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="24" customHeight="1">
+    <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
@@ -3159,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="24" customHeight="1">
+    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>133</v>
       </c>
@@ -3182,7 +3187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="24" customHeight="1" thickBot="1">
+    <row r="7" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>135</v>
       </c>
@@ -3202,7 +3207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
         <v>4</v>
       </c>
@@ -3210,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>47</v>
       </c>
@@ -3230,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="24" customHeight="1">
+    <row r="11" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>1</v>
       </c>
@@ -3253,7 +3258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="24" customHeight="1" thickBot="1">
+    <row r="12" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
         <v>133</v>
       </c>
@@ -3273,7 +3278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
         <v>9</v>
       </c>
@@ -3281,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -3295,7 +3300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="24" customHeight="1" thickBot="1">
+    <row r="16" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>1</v>
       </c>
@@ -3318,7 +3323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I17" t="s">
         <v>13</v>
       </c>
@@ -3329,7 +3334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I18" t="s">
         <v>14</v>
       </c>
@@ -3337,12 +3342,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" thickBot="1">
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="24" customHeight="1" thickBot="1">
+    <row r="20" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="42" t="s">
         <v>1</v>
       </c>
@@ -3368,7 +3373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I21" t="s">
         <v>17</v>
       </c>
@@ -3376,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I22" t="s">
         <v>18</v>
       </c>
@@ -3384,7 +3389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I23" t="s">
         <v>19</v>
       </c>
@@ -3395,7 +3400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
         <v>81</v>
       </c>
@@ -3409,7 +3414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
         <v>22</v>
       </c>
@@ -3417,7 +3422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I27" t="s">
         <v>23</v>
       </c>
@@ -3428,7 +3433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I28" t="s">
         <v>24</v>
       </c>
@@ -3436,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
         <v>88</v>
       </c>
@@ -3450,7 +3455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I31" t="s">
         <v>27</v>
       </c>
@@ -3458,7 +3463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I32" t="s">
         <v>28</v>
       </c>
@@ -3466,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="8:11">
+    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
       <c r="I33" t="s">
         <v>29</v>
       </c>
@@ -3477,7 +3482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="8:11">
+    <row r="35" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H35" t="s">
         <v>95</v>
       </c>
@@ -3491,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:11">
+    <row r="36" spans="8:11" x14ac:dyDescent="0.25">
       <c r="I36" t="s">
         <v>32</v>
       </c>
@@ -3502,7 +3507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="8:11">
+    <row r="37" spans="8:11" x14ac:dyDescent="0.25">
       <c r="I37" t="s">
         <v>33</v>
       </c>
@@ -3510,7 +3515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="8:11">
+    <row r="38" spans="8:11" x14ac:dyDescent="0.25">
       <c r="I38" t="s">
         <v>34</v>
       </c>
@@ -3518,7 +3523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="8:11">
+    <row r="40" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>102</v>
       </c>
@@ -3532,7 +3537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="8:11">
+    <row r="41" spans="8:11" x14ac:dyDescent="0.25">
       <c r="I41" t="s">
         <v>37</v>
       </c>
@@ -3540,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="8:11">
+    <row r="42" spans="8:11" x14ac:dyDescent="0.25">
       <c r="I42" t="s">
         <v>38</v>
       </c>
@@ -3551,7 +3556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="8:11">
+    <row r="43" spans="8:11" x14ac:dyDescent="0.25">
       <c r="I43" t="s">
         <v>39</v>
       </c>
@@ -3572,7 +3577,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3582,15 +3587,15 @@
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="47"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="47"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -3598,7 +3603,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="50">
         <v>41802</v>
       </c>
@@ -3616,7 +3621,7 @@
       </c>
       <c r="G2" s="48"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>41803</v>
       </c>
@@ -3643,7 +3648,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <v>41807</v>
       </c>
@@ -3670,7 +3675,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="54">
         <v>41809</v>
       </c>
@@ -3697,7 +3702,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="54">
         <v>41813</v>
       </c>
@@ -3724,7 +3729,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="57">
         <v>41813</v>
       </c>
@@ -3751,7 +3756,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="61"/>
       <c r="B8" s="62"/>
       <c r="C8" s="21"/>
@@ -3770,7 +3775,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="50">
         <v>41803</v>
       </c>
@@ -3797,7 +3802,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="54">
         <v>41804</v>
       </c>
@@ -3824,7 +3829,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="54">
         <v>41808</v>
       </c>
@@ -3840,7 +3845,7 @@
       <c r="F11" s="46"/>
       <c r="G11" s="49"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="54">
         <v>41808</v>
       </c>
@@ -3858,7 +3863,7 @@
       </c>
       <c r="G12" s="49"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="54">
         <v>41813</v>
       </c>
@@ -3885,7 +3890,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="57">
         <v>41813</v>
       </c>
@@ -3912,7 +3917,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="64" customFormat="1">
+    <row r="15" spans="1:11" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
       <c r="B15" s="62"/>
       <c r="C15" s="21"/>
@@ -3931,7 +3936,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="50">
         <v>41804</v>
       </c>
@@ -3960,7 +3965,7 @@
       </c>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="54">
         <v>41805</v>
       </c>
@@ -3976,7 +3981,7 @@
       <c r="F17" s="46"/>
       <c r="G17" s="49"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="54">
         <v>41809</v>
       </c>
@@ -3994,7 +3999,7 @@
       </c>
       <c r="G18" s="49"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="54">
         <v>41810</v>
       </c>
@@ -4021,7 +4026,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="54">
         <v>41814</v>
       </c>
@@ -4048,7 +4053,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="57">
         <v>41814</v>
       </c>
@@ -4064,7 +4069,7 @@
       <c r="F21" s="46"/>
       <c r="G21" s="49"/>
     </row>
-    <row r="22" spans="1:10" s="64" customFormat="1">
+    <row r="22" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="61"/>
       <c r="B22" s="62"/>
       <c r="C22" s="21"/>
@@ -4074,7 +4079,7 @@
       </c>
       <c r="G22" s="66"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="50">
         <v>41804</v>
       </c>
@@ -4099,7 +4104,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="54">
         <v>41805</v>
       </c>
@@ -4115,7 +4120,7 @@
       <c r="F24" s="46"/>
       <c r="G24" s="49"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="54">
         <v>41809</v>
       </c>
@@ -4133,7 +4138,7 @@
       </c>
       <c r="G25" s="49"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="54">
         <v>41810</v>
       </c>
@@ -4158,7 +4163,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="54">
         <v>41814</v>
       </c>
@@ -4173,7 +4178,7 @@
       </c>
       <c r="F27" s="45"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="57">
         <v>41814</v>
       </c>
@@ -4188,7 +4193,7 @@
       </c>
       <c r="F28" s="45"/>
     </row>
-    <row r="29" spans="1:10" s="64" customFormat="1">
+    <row r="29" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
       <c r="B29" s="62"/>
       <c r="C29" s="21"/>
@@ -4196,7 +4201,7 @@
       <c r="F29" s="67"/>
       <c r="G29" s="68"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="50">
         <v>41805</v>
       </c>
@@ -4214,7 +4219,7 @@
       <c r="G30" s="86"/>
       <c r="H30" s="87"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="54">
         <v>41805</v>
       </c>
@@ -4229,7 +4234,7 @@
       </c>
       <c r="F31" s="45"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="54">
         <v>41810</v>
       </c>
@@ -4244,7 +4249,7 @@
       </c>
       <c r="F32" s="45"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="54">
         <v>41811</v>
       </c>
@@ -4259,7 +4264,7 @@
       </c>
       <c r="F33" s="45"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="54">
         <v>41815</v>
       </c>
@@ -4274,7 +4279,7 @@
       </c>
       <c r="F34" s="45"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="57">
         <v>41815</v>
       </c>
@@ -4289,14 +4294,14 @@
       </c>
       <c r="F35" s="45"/>
     </row>
-    <row r="36" spans="1:7" s="64" customFormat="1">
+    <row r="36" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="61"/>
       <c r="B36" s="62"/>
       <c r="C36" s="21"/>
       <c r="D36" s="63"/>
       <c r="G36" s="68"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="50">
         <v>41806</v>
       </c>
@@ -4310,7 +4315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="54">
         <v>41806</v>
       </c>
@@ -4324,7 +4329,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="54">
         <v>41811</v>
       </c>
@@ -4338,7 +4343,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="54">
         <v>41812</v>
       </c>
@@ -4352,7 +4357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="54">
         <v>41815</v>
       </c>
@@ -4366,7 +4371,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="57">
         <v>41815</v>
       </c>
@@ -4380,14 +4385,14 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="64" customFormat="1">
+    <row r="43" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="61"/>
       <c r="B43" s="62"/>
       <c r="C43" s="21"/>
       <c r="D43" s="63"/>
       <c r="G43" s="68"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="50">
         <v>41806</v>
       </c>
@@ -4401,7 +4406,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="54">
         <v>41807</v>
       </c>
@@ -4415,7 +4420,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="54">
         <v>41811</v>
       </c>
@@ -4429,7 +4434,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="54">
         <v>41813</v>
       </c>
@@ -4443,7 +4448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="54">
         <v>41816</v>
       </c>
@@ -4457,7 +4462,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="57">
         <v>41816</v>
       </c>
@@ -4471,14 +4476,14 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="64" customFormat="1">
+    <row r="50" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="61"/>
       <c r="B50" s="62"/>
       <c r="C50" s="21"/>
       <c r="D50" s="63"/>
       <c r="G50" s="68"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="50">
         <v>41807</v>
       </c>
@@ -4492,7 +4497,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="54">
         <v>41808</v>
       </c>
@@ -4506,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="54">
         <v>41812</v>
       </c>
@@ -4520,7 +4525,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="54">
         <v>41812</v>
       </c>
@@ -4534,7 +4539,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="54">
         <v>41816</v>
       </c>
@@ -4548,7 +4553,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="57">
         <v>41816</v>
       </c>
